--- a/군인공제회 서버교체 관련 문서/별첨1. 랙 실장도.xlsx
+++ b/군인공제회 서버교체 관련 문서/별첨1. 랙 실장도.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3000. ===== 프로젝트 수행 =====\2050. (군인공제회) 정보체계 개선 사업\수발신 자료(협력사)\수신자료\설치계획서\재택근무 보안데스크탑(VDI)구축\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRO\Desktop\Dev\군인공제회 서버교체 관련 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D541926F-F612-401D-8E7B-9FEDD3CBF332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531C0764-AEEC-4622-A290-7F4ECEF54432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22200" yWindow="750" windowWidth="18420" windowHeight="14790" xr2:uid="{37850960-4D9C-4BEF-AA0E-09420099F31B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37850960-4D9C-4BEF-AA0E-09420099F31B}"/>
   </bookViews>
   <sheets>
     <sheet name="VDI 렉 실장도" sheetId="1" r:id="rId1"/>
@@ -35,22 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
-    <t>Catalyst C9300-24T-A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dell PowerEdge R740</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetApp FAS2750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Catalyst C9300-24S-A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출입문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,7 +55,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재택근무 보안데스크탑(VDI)</t>
+    <t>FMS/EIS/복제서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불승인서/EP/청약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dell PowerEdge R740 (서버 가상화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Falconstor(NSS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Falcon stor(NSS)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,12 +147,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -169,6 +163,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -338,7 +344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,9 +363,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,6 +393,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,26 +411,53 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,394 +773,664 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6802F1FA-C94B-443A-980C-AE6E626A872B}">
-  <dimension ref="B2:E46"/>
+  <dimension ref="B3:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="3.375" customWidth="1"/>
     <col min="3" max="3" width="2.25" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="2.25" customWidth="1"/>
+    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="7" max="7" width="3.375" customWidth="1"/>
+    <col min="8" max="8" width="2.25" customWidth="1"/>
+    <col min="9" max="9" width="31.5" customWidth="1"/>
+    <col min="10" max="10" width="2.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.45">
-      <c r="D2" s="28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="1">
+    <row r="3" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
         <v>42</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="1">
+      <c r="C5" s="2"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="1">
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
         <v>41</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="1">
+      <c r="C6" s="2"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="1">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
         <v>40</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="1">
+      <c r="C7" s="2"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
         <v>39</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B8" s="1">
+      <c r="C8" s="2"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
         <v>38</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="1">
+      <c r="C9" s="2"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="1">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
         <v>37</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B10" s="1">
+      <c r="C10" s="2"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="1">
+        <v>37</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
         <v>36</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B11" s="1">
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="1">
+        <v>36</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
         <v>35</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B12" s="1">
+      <c r="C12" s="2"/>
+      <c r="D12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="G12" s="1">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
         <v>34</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B13" s="1">
+      <c r="C13" s="2"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="1">
+        <v>34</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
         <v>33</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B14" s="1">
+      <c r="C14" s="2"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="1">
+        <v>33</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
         <v>32</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B15" s="1">
+      <c r="C15" s="2"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="1">
+        <v>32</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
         <v>31</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B16" s="1">
+      <c r="C16" s="2"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="1">
+        <v>31</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
         <v>30</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="1">
+      <c r="C17" s="2"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="1">
+        <v>30</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
         <v>29</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="1">
+      <c r="C18" s="2"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1">
+        <v>29</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
         <v>28</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="1">
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="1">
+        <v>28</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
         <v>27</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="1">
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="1">
+        <v>27</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
         <v>26</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="1">
+      <c r="C21" s="2"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="1">
+        <v>26</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
         <v>25</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="1">
+      <c r="C22" s="2"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="1">
+        <v>25</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
         <v>24</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="1">
+      <c r="C23" s="2"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="1">
+        <v>24</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
         <v>23</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="1">
+      <c r="C24" s="2"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="1">
+        <v>23</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
         <v>22</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="1">
+      <c r="C25" s="2"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="1">
+        <v>22</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
         <v>21</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="1">
+      <c r="C26" s="2"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="2"/>
+      <c r="G26" s="1">
+        <v>21</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
         <v>20</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="1">
+      <c r="C27" s="2"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="2"/>
+      <c r="G27" s="1">
+        <v>20</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
         <v>19</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="1">
-        <v>18</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="G28" s="1">
+        <v>19</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="2"/>
+      <c r="G29" s="1">
+        <v>18</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
         <v>17</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="1">
-        <v>16</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="G30" s="1">
+        <v>17</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="1">
+        <v>16</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
         <v>15</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="1">
-        <v>14</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="4"/>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="G32" s="1">
+        <v>15</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
+        <v>14</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="1">
+        <v>14</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
         <v>13</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="1">
+      <c r="C34" s="2"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="1">
+        <v>13</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
         <v>12</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="1">
+      <c r="C35" s="2"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="1">
+        <v>12</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
         <v>11</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="1">
+      <c r="C36" s="2"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="2"/>
+      <c r="G36" s="1">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
         <v>10</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="1">
+      <c r="C37" s="2"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="2"/>
+      <c r="G37" s="1">
+        <v>10</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
         <v>9</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="1">
+      <c r="C38" s="2"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="1">
+        <v>9</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
         <v>8</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" s="1">
+      <c r="C39" s="2"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="2"/>
+      <c r="G39" s="1">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
         <v>7</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" s="1">
+      <c r="C40" s="2"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="2"/>
+      <c r="G40" s="1">
+        <v>7</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
         <v>6</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" s="1">
+      <c r="C41" s="2"/>
+      <c r="D41" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="G41" s="1">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
         <v>5</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" s="1">
+      <c r="C42" s="2"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="2"/>
+      <c r="G42" s="1">
+        <v>5</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
         <v>4</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" s="1">
+      <c r="C43" s="2"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="2"/>
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
         <v>3</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" s="1">
+      <c r="C44" s="2"/>
+      <c r="D44" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
         <v>2</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" s="1">
+      <c r="C45" s="2"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="2"/>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
         <v>1</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="2"/>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D22:D25"/>
+  <mergeCells count="10">
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="96" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1139,265 +1442,259 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" customWidth="1"/>
+    <col min="3" max="3" width="4.875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4.875" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="4.875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="9" max="9" width="4.875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" customWidth="1"/>
+    <col min="11" max="11" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="24"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B4" s="24"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B5" s="24"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B6" s="24"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B7" s="24"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B8" s="24"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B9" s="24"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B10" s="24"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B11" s="24"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="22" t="s">
+    <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="27"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="27"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="27"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="27"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="27"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="27"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="27"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="27"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="H2:H3"/>
@@ -1414,6 +1711,12 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
